--- a/src/visitation/web/doc/User Interface for Field Visitation - 2022-06-01.xlsx
+++ b/src/visitation/web/doc/User Interface for Field Visitation - 2022-06-01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/everett/Documents/Clients/Enzi Corporation/Field Visitation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/everett/Documents/Codes/Projects/Work/Enzi/src/visitation/web/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72122B73-4F2B-9546-8E39-10D662630EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAAFCAB-CEF4-254F-AF85-32241F65ADF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32720" windowHeight="17900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
   <si>
     <t>Dashboard</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>Create CRUD APIs</t>
+  </si>
+  <si>
+    <t>Address Keyword</t>
   </si>
 </sst>
 </file>
@@ -854,17 +857,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -884,26 +888,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -914,31 +912,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1284,7 +1287,286 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91973</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>225466</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38443</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B70F95-D095-3473-673A-59AA585DAC89}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1413360" y="4889520"/>
+            <a:ext cx="5683320" cy="493200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B70F95-D095-3473-673A-59AA585DAC89}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1396027" y="4872184"/>
+              <a:ext cx="5718339" cy="528226"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>112786</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>205989</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134697</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8695F1B-903B-7083-5B8E-16414105C8BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6984000" y="4771440"/>
+            <a:ext cx="357480" cy="325800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8695F1B-903B-7083-5B8E-16414105C8BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6966360" y="4753800"/>
+              <a:ext cx="393120" cy="361440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>143888</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123465</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>186134</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6550370B-EAF5-0A1F-61FC-2D53C28215BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="936720" y="5753160"/>
+            <a:ext cx="1829520" cy="540720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6550370B-EAF5-0A1F-61FC-2D53C28215BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="919080" y="5735520"/>
+              <a:ext cx="1865160" cy="576360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-07-04T02:51:51.961"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 71 24575,'39'0'0,"15"0"0,15 0 0,10 0 0,12 0 0,8 0-1967,-14-1 1,6-1 0,5 1 0,6-1 0,6-1 1965,-22 1 0,5-1 0,3 0 0,3 0 0,4 0 0,3-1 0,2 1 1,2-1-1,2 1-207,-20 1 1,2-1 0,2 0 0,2-1 0,2 1 0,1 0 0,2 0-1,0 0 1,3 0 0,0 1 0,1 0 0,0 0 0,2 2 0,0 0 207,-16 0 0,1 0 0,2 1 0,0 0 0,1 0 0,1 1 0,0-1 0,1 1 0,1 1 0,0-1 0,1 1 0,0 0 0,1 1 0,0 0 0,0 1 0,1 0 0,0 0 0,-1 1 0,1 0-52,-6 1 0,-1 0 0,2 0 1,0 0-1,1 1 0,0 0 0,1 1 1,-1 0-1,2 0 0,-1 1 0,0 0 1,1 0-1,-1 1 0,1-1 0,-1 2 1,0-1-1,0 1 0,0 0 0,-1 0 1,0 1-1,-1-1 0,0 1 52,6 2 0,0-1 0,0 1 0,0 1 0,0 0 0,0 0 0,0 1 0,0 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,0 1 0,-1-1 0,-1 1 0,0 0 0,-1 0 0,0 0 0,-2 0 0,-1 1 0,6 0 0,-1 2 0,0 0 0,-1 0 0,0 0 0,-1 1 0,0 0 0,-1 0 0,-1 1 0,-1-1 0,-2 0 0,0 0 0,-2 0 0,-1-1 0,-1 0 0,-2 0 0,-2-1 0,19 6 0,-1-1 0,-1 1 0,-2-1 0,-3 1 0,-1-2 0,-3 0 0,-3-1 0,-2-1 0,-5-2 0,-3-2 0,19 5 0,-5 0 0,-5-3 0,-5-2 0,-5-4 0,-8-5 0,12-3 0,-10-5 0,-11-11 1278,-9-16 1,-5-6-1279,19-6 0,5 0 2268,6-2 1,2 2-2269,-3 5 0,-2 1 3392,-5 4 0,-3 0-3392,-3 3 0,0 0-3392,-3 0 0,-1 0 3392,1 0 0,0 0 0,-1 0 0,1-1 0,-3 0 0,-1 0 0,-5 0 0,-2 1 0,36-21 0,-10 3 0,-9 4 6784,0 4-6784,4 0 0,3 3 0,4 0 0,1 2 0,-1 3 0,-1 0 0,2 0 0,5-1 0,-35 11 0,1-1 0,2-1 0,1-1 0,5 0 0,0 0 0,0 0 0,0 1 0,-6 2 0,0 0 0,38-9 0,-18 5 0,-13 5 0,-10 2 0,-6 4 0,-4 0 0,-2 4 0,-1 0 0,2 2 0,-1 1 0,2 0 0,-2 2 0,-4 0 0,-6 0 0,-6 0 0,-4 0 0,0 0 0,-8 0 0,2 0 0,-8 0 0,2 0 0,-1 0 0,0 0 0,1 0 0,-2 0 0,1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-07-04T02:51:55.060"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 1 24575,'0'18'0,"0"10"0,0 14 0,0 19 0,3 12 0,4 9 0,4-4 0,0-13 0,-1-12 0,-4-12 0,-1-6 0,-1-5 0,-2-8 0,1-6 0,-1-2 0,4 4 0,3 4 0,1 2 0,-2-2 0,-3-6 0,-3-6 0,0-1 0,1 5 0,0 7 0,1 7 0,-1-2 0,-2-7 0,0-8 0,0-5 0,7-7 0,12-11 0,18-13 0,20-9 0,15-5 0,10-1 0,5 5 0,1 6 0,1 7 0,-3 9 0,-12 6 0,-13 3 0,-18 1 0,-13 1 0,-18-1 0,-14-2 0,-20-7 0,-14-8 0,-14-5 0,-3-3 0,-2 1 0,1 3 0,0 2 0,-2 1 0,-4 0 0,-4-1 0,0-2 0,4 1 0,13 4 0,11 2 0,9 3 0,6 4 0,3 0 0,3 2 0,3 0 0,0 1 0,2 0 0,2 2 0,2 1 0,-2-1 0,-5-3 0,-5-4 0,-2-3 0,-2 1 0,3 0 0,1 1 0,0-1 0,1 0 0,3 2 0,3 2 0,6 4 0,1 3 0,3 2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-07-04T02:52:05.745"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2364 89 24575,'-64'-2'0,"-25"-1"0,-8-7 0,16 2 0,-5-2 0,8 1 0,-2-1 0,-17-1 0,-2 2 0,9 3 0,2 1 0,9 3 0,3 0 0,4 1 0,2 1 0,4 0 0,3 0 0,2 1 0,2 2 0,6 1 0,0 1 0,2 2 0,1 1 0,-45 12 0,-2 2 0,9 1 0,12 3 0,13 1 0,16 2 0,9 4 0,6 9 0,-10 45 0,12-12 0,12-21 0,2 2 0,4 23 0,6-6 0,5-10 0,3-11 0,6-9 0,8-4 0,10-3 0,4 1 0,4 1 0,1-1 0,1-3 0,6-2 0,9-6 0,10-1 0,13-2 0,9 1 0,8 2 0,-40-11 0,2 0 0,6 4 0,1 0 0,4 1 0,2-1 0,7 2 0,1-2 0,-1-1 0,0-1 0,-2-1 0,0 0 0,-2-2 0,-2-1 0,-8-2 0,-2-1 0,-3-3 0,-1 0 0,43-1 0,-6-4 0,2-2 0,-5 0 0,-5 0 0,-13 0 0,-9 0 0,2 0 0,5-1 0,-8-1 0,-15-1 0,-7 2 0,23 0 0,-7 1 0,7 0 0,15 0 0,8 0-333,-8 1 0,7 0 1,0 1 332,2-1 0,1 1 0,-1-1 0,-5 0 0,0 1 0,-2-1-18,-6 1 1,-1-1 0,-4 0 17,6-1 0,-4 0 0,-3-1 0,-2-1 0,-1 0 0,-1-1 0,-2-2 0,0-3 0,-3-2 0,-1-2 498,2-1 0,-1-2-498,0-1 0,-1-2 27,-2 0 0,-3 0-27,39-17 0,-22 2 0,-17 3 0,-16 2 0,-12-2 0,-7-3 0,-8-5 0,-4-6 0,-3-2 0,-6-1 0,-9 1 0,-11 0 0,-12-1 0,-5 2 0,-1 2 0,0 6 0,1 7 0,-5 0 0,-2 4 0,-3-2 0,-4-3 0,-2 3 0,-4 2 0,-3 5 0,-3 2 0,-5-1 0,-10-2 0,-5 0 0,-1 2 0,4 5 0,4 1 0,-1-1 0,-1-1 0,-7 0 0,-4-1 0,45 9 0,1 1 0,-3 0 0,0 0 0,0 0 0,-1-1 0,0 2 0,0-1 0,2 0 0,0 0 0,-42-6 0,9 3 0,13 2 0,12 4 0,12 1 0,9-1 0,5-1 0,1-4 0,-2 0 0,1 2 0,1 0 0,4 4 0,4 0 0,2 0 0,0 2 0,-3-4 0,11 3 0,-1-1 0,13 3 0,0 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1552,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="I2:CX53"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView topLeftCell="F1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17:AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1569,108 +1851,108 @@
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
       <c r="O3" s="25"/>
-      <c r="T3" s="44" t="s">
+      <c r="T3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="45"/>
-      <c r="V3" s="48" t="s">
+      <c r="U3" s="66"/>
+      <c r="V3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="50"/>
-      <c r="AH3" s="44" t="s">
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="53"/>
+      <c r="AH3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="48" t="s">
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="50"/>
-      <c r="AV3" s="44" t="s">
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="53"/>
+      <c r="AV3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="48" t="s">
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="50"/>
-      <c r="BJ3" s="44" t="s">
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="53"/>
+      <c r="BJ3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="48" t="s">
+      <c r="BK3" s="66"/>
+      <c r="BL3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="49"/>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49"/>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
-      <c r="BT3" s="49"/>
-      <c r="BU3" s="49"/>
-      <c r="BV3" s="50"/>
-      <c r="BX3" s="44" t="s">
+      <c r="BM3" s="52"/>
+      <c r="BN3" s="52"/>
+      <c r="BO3" s="52"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52"/>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="52"/>
+      <c r="BU3" s="52"/>
+      <c r="BV3" s="53"/>
+      <c r="BX3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="BY3" s="45"/>
-      <c r="BZ3" s="48" t="s">
+      <c r="BY3" s="66"/>
+      <c r="BZ3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="49"/>
-      <c r="CD3" s="49"/>
-      <c r="CE3" s="49"/>
-      <c r="CF3" s="49"/>
-      <c r="CG3" s="49"/>
-      <c r="CH3" s="49"/>
-      <c r="CI3" s="49"/>
-      <c r="CJ3" s="50"/>
-      <c r="CL3" s="44" t="s">
+      <c r="CA3" s="52"/>
+      <c r="CB3" s="52"/>
+      <c r="CC3" s="52"/>
+      <c r="CD3" s="52"/>
+      <c r="CE3" s="52"/>
+      <c r="CF3" s="52"/>
+      <c r="CG3" s="52"/>
+      <c r="CH3" s="52"/>
+      <c r="CI3" s="52"/>
+      <c r="CJ3" s="53"/>
+      <c r="CL3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="CM3" s="45"/>
-      <c r="CN3" s="48" t="s">
+      <c r="CM3" s="66"/>
+      <c r="CN3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="CO3" s="49"/>
-      <c r="CP3" s="49"/>
-      <c r="CQ3" s="49"/>
-      <c r="CR3" s="49"/>
-      <c r="CS3" s="49"/>
-      <c r="CT3" s="49"/>
-      <c r="CU3" s="49"/>
-      <c r="CV3" s="49"/>
-      <c r="CW3" s="49"/>
-      <c r="CX3" s="50"/>
+      <c r="CO3" s="52"/>
+      <c r="CP3" s="52"/>
+      <c r="CQ3" s="52"/>
+      <c r="CR3" s="52"/>
+      <c r="CS3" s="52"/>
+      <c r="CT3" s="52"/>
+      <c r="CU3" s="52"/>
+      <c r="CV3" s="52"/>
+      <c r="CW3" s="52"/>
+      <c r="CX3" s="53"/>
     </row>
     <row r="4" spans="9:102" x14ac:dyDescent="0.2">
       <c r="I4" s="8" t="s">
@@ -1682,84 +1964,84 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="9"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="53"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="53"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="53"/>
-      <c r="BJ4" s="46"/>
-      <c r="BK4" s="47"/>
-      <c r="BL4" s="51"/>
-      <c r="BM4" s="52"/>
-      <c r="BN4" s="52"/>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="52"/>
-      <c r="BR4" s="52"/>
-      <c r="BS4" s="52"/>
-      <c r="BT4" s="52"/>
-      <c r="BU4" s="52"/>
-      <c r="BV4" s="53"/>
-      <c r="BX4" s="46"/>
-      <c r="BY4" s="47"/>
-      <c r="BZ4" s="51"/>
-      <c r="CA4" s="52"/>
-      <c r="CB4" s="52"/>
-      <c r="CC4" s="52"/>
-      <c r="CD4" s="52"/>
-      <c r="CE4" s="52"/>
-      <c r="CF4" s="52"/>
-      <c r="CG4" s="52"/>
-      <c r="CH4" s="52"/>
-      <c r="CI4" s="52"/>
-      <c r="CJ4" s="53"/>
-      <c r="CL4" s="46"/>
-      <c r="CM4" s="47"/>
-      <c r="CN4" s="51"/>
-      <c r="CO4" s="52"/>
-      <c r="CP4" s="52"/>
-      <c r="CQ4" s="52"/>
-      <c r="CR4" s="52"/>
-      <c r="CS4" s="52"/>
-      <c r="CT4" s="52"/>
-      <c r="CU4" s="52"/>
-      <c r="CV4" s="52"/>
-      <c r="CW4" s="52"/>
-      <c r="CX4" s="53"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="56"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="56"/>
+      <c r="AV4" s="67"/>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="55"/>
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="56"/>
+      <c r="BJ4" s="67"/>
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="54"/>
+      <c r="BM4" s="55"/>
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="55"/>
+      <c r="BQ4" s="55"/>
+      <c r="BR4" s="55"/>
+      <c r="BS4" s="55"/>
+      <c r="BT4" s="55"/>
+      <c r="BU4" s="55"/>
+      <c r="BV4" s="56"/>
+      <c r="BX4" s="67"/>
+      <c r="BY4" s="68"/>
+      <c r="BZ4" s="54"/>
+      <c r="CA4" s="55"/>
+      <c r="CB4" s="55"/>
+      <c r="CC4" s="55"/>
+      <c r="CD4" s="55"/>
+      <c r="CE4" s="55"/>
+      <c r="CF4" s="55"/>
+      <c r="CG4" s="55"/>
+      <c r="CH4" s="55"/>
+      <c r="CI4" s="55"/>
+      <c r="CJ4" s="56"/>
+      <c r="CL4" s="67"/>
+      <c r="CM4" s="68"/>
+      <c r="CN4" s="54"/>
+      <c r="CO4" s="55"/>
+      <c r="CP4" s="55"/>
+      <c r="CQ4" s="55"/>
+      <c r="CR4" s="55"/>
+      <c r="CS4" s="55"/>
+      <c r="CT4" s="55"/>
+      <c r="CU4" s="55"/>
+      <c r="CV4" s="55"/>
+      <c r="CW4" s="55"/>
+      <c r="CX4" s="56"/>
     </row>
     <row r="5" spans="9:102" x14ac:dyDescent="0.2">
       <c r="I5" s="8" t="s">
@@ -1890,63 +2172,63 @@
       <c r="AT6" s="9"/>
       <c r="AV6" s="8"/>
       <c r="AW6" s="4"/>
-      <c r="AX6" s="54" t="s">
+      <c r="AX6" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="AY6" s="54"/>
-      <c r="AZ6" s="54"/>
-      <c r="BA6" s="54"/>
-      <c r="BB6" s="54"/>
-      <c r="BC6" s="54"/>
-      <c r="BD6" s="54"/>
-      <c r="BE6" s="54"/>
-      <c r="BF6" s="54"/>
-      <c r="BG6" s="54"/>
+      <c r="AY6" s="58"/>
+      <c r="AZ6" s="58"/>
+      <c r="BA6" s="58"/>
+      <c r="BB6" s="58"/>
+      <c r="BC6" s="58"/>
+      <c r="BD6" s="58"/>
+      <c r="BE6" s="58"/>
+      <c r="BF6" s="58"/>
+      <c r="BG6" s="58"/>
       <c r="BH6" s="9"/>
       <c r="BJ6" s="8"/>
-      <c r="BK6" s="60" t="s">
+      <c r="BK6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="BL6" s="60"/>
-      <c r="BM6" s="60"/>
-      <c r="BN6" s="60"/>
-      <c r="BO6" s="60"/>
-      <c r="BP6" s="60"/>
-      <c r="BQ6" s="60"/>
-      <c r="BR6" s="60"/>
-      <c r="BS6" s="60"/>
-      <c r="BT6" s="60"/>
-      <c r="BU6" s="60"/>
+      <c r="BL6" s="57"/>
+      <c r="BM6" s="57"/>
+      <c r="BN6" s="57"/>
+      <c r="BO6" s="57"/>
+      <c r="BP6" s="57"/>
+      <c r="BQ6" s="57"/>
+      <c r="BR6" s="57"/>
+      <c r="BS6" s="57"/>
+      <c r="BT6" s="57"/>
+      <c r="BU6" s="57"/>
       <c r="BV6" s="9"/>
       <c r="BX6" s="8"/>
-      <c r="BY6" s="60" t="s">
+      <c r="BY6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="BZ6" s="60"/>
-      <c r="CA6" s="60"/>
-      <c r="CB6" s="60"/>
-      <c r="CC6" s="60"/>
-      <c r="CD6" s="60"/>
-      <c r="CE6" s="60"/>
-      <c r="CF6" s="60"/>
-      <c r="CG6" s="60"/>
-      <c r="CH6" s="60"/>
-      <c r="CI6" s="60"/>
+      <c r="BZ6" s="57"/>
+      <c r="CA6" s="57"/>
+      <c r="CB6" s="57"/>
+      <c r="CC6" s="57"/>
+      <c r="CD6" s="57"/>
+      <c r="CE6" s="57"/>
+      <c r="CF6" s="57"/>
+      <c r="CG6" s="57"/>
+      <c r="CH6" s="57"/>
+      <c r="CI6" s="57"/>
       <c r="CJ6" s="9"/>
       <c r="CL6" s="8"/>
-      <c r="CM6" s="60" t="s">
+      <c r="CM6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="CN6" s="60"/>
-      <c r="CO6" s="60"/>
-      <c r="CP6" s="60"/>
-      <c r="CQ6" s="60"/>
-      <c r="CR6" s="60"/>
-      <c r="CS6" s="60"/>
-      <c r="CT6" s="60"/>
-      <c r="CU6" s="60"/>
-      <c r="CV6" s="60"/>
-      <c r="CW6" s="60"/>
+      <c r="CN6" s="57"/>
+      <c r="CO6" s="57"/>
+      <c r="CP6" s="57"/>
+      <c r="CQ6" s="57"/>
+      <c r="CR6" s="57"/>
+      <c r="CS6" s="57"/>
+      <c r="CT6" s="57"/>
+      <c r="CU6" s="57"/>
+      <c r="CV6" s="57"/>
+      <c r="CW6" s="57"/>
       <c r="CX6" s="9"/>
     </row>
     <row r="7" spans="9:102" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1991,61 +2273,61 @@
       <c r="AT7" s="9"/>
       <c r="AV7" s="8"/>
       <c r="AW7" s="4"/>
-      <c r="AX7" s="54"/>
-      <c r="AY7" s="54"/>
-      <c r="AZ7" s="54"/>
-      <c r="BA7" s="54"/>
-      <c r="BB7" s="54"/>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
+      <c r="AX7" s="58"/>
+      <c r="AY7" s="58"/>
+      <c r="AZ7" s="58"/>
+      <c r="BA7" s="58"/>
+      <c r="BB7" s="58"/>
+      <c r="BC7" s="58"/>
+      <c r="BD7" s="58"/>
+      <c r="BE7" s="58"/>
+      <c r="BF7" s="58"/>
+      <c r="BG7" s="58"/>
       <c r="BH7" s="9"/>
       <c r="BJ7" s="8"/>
-      <c r="BK7" s="54" t="s">
+      <c r="BK7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="BL7" s="54"/>
-      <c r="BM7" s="54"/>
-      <c r="BN7" s="54"/>
-      <c r="BO7" s="54"/>
-      <c r="BP7" s="54"/>
-      <c r="BQ7" s="54"/>
-      <c r="BR7" s="54"/>
-      <c r="BS7" s="54"/>
-      <c r="BT7" s="54"/>
-      <c r="BU7" s="54"/>
+      <c r="BL7" s="58"/>
+      <c r="BM7" s="58"/>
+      <c r="BN7" s="58"/>
+      <c r="BO7" s="58"/>
+      <c r="BP7" s="58"/>
+      <c r="BQ7" s="58"/>
+      <c r="BR7" s="58"/>
+      <c r="BS7" s="58"/>
+      <c r="BT7" s="58"/>
+      <c r="BU7" s="58"/>
       <c r="BV7" s="9"/>
       <c r="BX7" s="8"/>
-      <c r="BY7" s="54" t="s">
+      <c r="BY7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="BZ7" s="54"/>
-      <c r="CA7" s="54"/>
-      <c r="CB7" s="54"/>
-      <c r="CC7" s="54"/>
-      <c r="CD7" s="54"/>
-      <c r="CE7" s="54"/>
-      <c r="CF7" s="54"/>
-      <c r="CG7" s="54"/>
-      <c r="CH7" s="54"/>
-      <c r="CI7" s="54"/>
+      <c r="BZ7" s="58"/>
+      <c r="CA7" s="58"/>
+      <c r="CB7" s="58"/>
+      <c r="CC7" s="58"/>
+      <c r="CD7" s="58"/>
+      <c r="CE7" s="58"/>
+      <c r="CF7" s="58"/>
+      <c r="CG7" s="58"/>
+      <c r="CH7" s="58"/>
+      <c r="CI7" s="58"/>
       <c r="CJ7" s="9"/>
       <c r="CL7" s="8"/>
-      <c r="CM7" s="54" t="s">
+      <c r="CM7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="CN7" s="54"/>
-      <c r="CO7" s="54"/>
-      <c r="CP7" s="54"/>
-      <c r="CQ7" s="54"/>
-      <c r="CR7" s="54"/>
-      <c r="CS7" s="54"/>
-      <c r="CT7" s="54"/>
-      <c r="CU7" s="54"/>
-      <c r="CV7" s="54"/>
-      <c r="CW7" s="54"/>
+      <c r="CN7" s="58"/>
+      <c r="CO7" s="58"/>
+      <c r="CP7" s="58"/>
+      <c r="CQ7" s="58"/>
+      <c r="CR7" s="58"/>
+      <c r="CS7" s="58"/>
+      <c r="CT7" s="58"/>
+      <c r="CU7" s="58"/>
+      <c r="CV7" s="58"/>
+      <c r="CW7" s="58"/>
       <c r="CX7" s="9"/>
     </row>
     <row r="8" spans="9:102" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2092,15 +2374,15 @@
       <c r="AW8" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AX8" s="55" t="s">
+      <c r="AX8" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AY8" s="55"/>
-      <c r="AZ8" s="55"/>
-      <c r="BA8" s="55"/>
-      <c r="BB8" s="55"/>
-      <c r="BC8" s="55"/>
-      <c r="BD8" s="55"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="70"/>
+      <c r="BD8" s="70"/>
       <c r="BE8" s="27" t="s">
         <v>45</v>
       </c>
@@ -2199,15 +2481,15 @@
       <c r="AT9" s="9"/>
       <c r="AV9" s="8"/>
       <c r="AW9" s="4"/>
-      <c r="AX9" s="56" t="s">
+      <c r="AX9" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="AY9" s="56"/>
-      <c r="AZ9" s="56"/>
-      <c r="BA9" s="56"/>
-      <c r="BB9" s="56"/>
-      <c r="BC9" s="56"/>
-      <c r="BD9" s="56"/>
+      <c r="AY9" s="71"/>
+      <c r="AZ9" s="71"/>
+      <c r="BA9" s="71"/>
+      <c r="BB9" s="71"/>
+      <c r="BC9" s="71"/>
+      <c r="BD9" s="71"/>
       <c r="BE9" s="5"/>
       <c r="BF9" s="5"/>
       <c r="BG9" s="4"/>
@@ -2262,18 +2544,18 @@
       <c r="O10" s="9"/>
       <c r="T10" s="8"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="54" t="s">
+      <c r="V10" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
       <c r="AF10" s="9"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="15"/>
@@ -2292,15 +2574,15 @@
       <c r="AW10" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AX10" s="57" t="s">
+      <c r="AX10" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AY10" s="57"/>
-      <c r="AZ10" s="57"/>
-      <c r="BA10" s="57"/>
-      <c r="BB10" s="57"/>
-      <c r="BC10" s="57"/>
-      <c r="BD10" s="57"/>
+      <c r="AY10" s="73"/>
+      <c r="AZ10" s="73"/>
+      <c r="BA10" s="73"/>
+      <c r="BB10" s="73"/>
+      <c r="BC10" s="73"/>
+      <c r="BD10" s="73"/>
       <c r="BE10" s="27" t="s">
         <v>45</v>
       </c>
@@ -2357,16 +2639,16 @@
       <c r="O11" s="9"/>
       <c r="T11" s="8"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
       <c r="AF11" s="9"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="15" t="s">
@@ -2385,75 +2667,75 @@
       <c r="AT11" s="9"/>
       <c r="AV11" s="8"/>
       <c r="AW11" s="4"/>
-      <c r="AX11" s="56" t="s">
+      <c r="AX11" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="AY11" s="56"/>
-      <c r="AZ11" s="56"/>
-      <c r="BA11" s="56"/>
-      <c r="BB11" s="56"/>
-      <c r="BC11" s="56"/>
-      <c r="BD11" s="56"/>
+      <c r="AY11" s="71"/>
+      <c r="AZ11" s="71"/>
+      <c r="BA11" s="71"/>
+      <c r="BB11" s="71"/>
+      <c r="BC11" s="71"/>
+      <c r="BD11" s="71"/>
       <c r="BE11" s="5"/>
       <c r="BF11" s="5"/>
       <c r="BG11" s="4"/>
       <c r="BH11" s="9"/>
       <c r="BJ11" s="8"/>
-      <c r="BK11" s="61" t="s">
+      <c r="BK11" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="BL11" s="62"/>
-      <c r="BM11" s="62"/>
-      <c r="BN11" s="63"/>
-      <c r="BO11" s="64" t="s">
+      <c r="BL11" s="63"/>
+      <c r="BM11" s="63"/>
+      <c r="BN11" s="64"/>
+      <c r="BO11" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BP11" s="65"/>
-      <c r="BQ11" s="66"/>
-      <c r="BR11" s="64" t="s">
+      <c r="BP11" s="49"/>
+      <c r="BQ11" s="50"/>
+      <c r="BR11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="BS11" s="65"/>
-      <c r="BT11" s="65"/>
-      <c r="BU11" s="66"/>
+      <c r="BS11" s="49"/>
+      <c r="BT11" s="49"/>
+      <c r="BU11" s="50"/>
       <c r="BV11" s="9"/>
       <c r="BX11" s="8"/>
-      <c r="BY11" s="67" t="s">
+      <c r="BY11" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="BZ11" s="68"/>
-      <c r="CA11" s="68"/>
-      <c r="CB11" s="69"/>
-      <c r="CC11" s="61" t="s">
+      <c r="BZ11" s="60"/>
+      <c r="CA11" s="60"/>
+      <c r="CB11" s="61"/>
+      <c r="CC11" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="CD11" s="62"/>
-      <c r="CE11" s="63"/>
-      <c r="CF11" s="64" t="s">
+      <c r="CD11" s="63"/>
+      <c r="CE11" s="64"/>
+      <c r="CF11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="CG11" s="65"/>
-      <c r="CH11" s="65"/>
-      <c r="CI11" s="66"/>
+      <c r="CG11" s="49"/>
+      <c r="CH11" s="49"/>
+      <c r="CI11" s="50"/>
       <c r="CJ11" s="9"/>
       <c r="CL11" s="8"/>
-      <c r="CM11" s="67" t="s">
+      <c r="CM11" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="CN11" s="68"/>
-      <c r="CO11" s="68"/>
-      <c r="CP11" s="69"/>
-      <c r="CQ11" s="67" t="s">
+      <c r="CN11" s="60"/>
+      <c r="CO11" s="60"/>
+      <c r="CP11" s="61"/>
+      <c r="CQ11" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="CR11" s="68"/>
-      <c r="CS11" s="69"/>
-      <c r="CT11" s="61" t="s">
+      <c r="CR11" s="60"/>
+      <c r="CS11" s="61"/>
+      <c r="CT11" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="CU11" s="62"/>
-      <c r="CV11" s="62"/>
-      <c r="CW11" s="63"/>
+      <c r="CU11" s="63"/>
+      <c r="CV11" s="63"/>
+      <c r="CW11" s="64"/>
       <c r="CX11" s="9"/>
     </row>
     <row r="12" spans="9:102" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2494,15 +2776,15 @@
       <c r="AW12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AX12" s="57" t="s">
+      <c r="AX12" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="AY12" s="57"/>
-      <c r="AZ12" s="57"/>
-      <c r="BA12" s="57"/>
-      <c r="BB12" s="57"/>
-      <c r="BC12" s="57"/>
-      <c r="BD12" s="57"/>
+      <c r="AY12" s="73"/>
+      <c r="AZ12" s="73"/>
+      <c r="BA12" s="73"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="73"/>
+      <c r="BD12" s="73"/>
       <c r="BE12" s="27" t="s">
         <v>45</v>
       </c>
@@ -2602,15 +2884,15 @@
       <c r="AT13" s="9"/>
       <c r="AV13" s="8"/>
       <c r="AW13" s="4"/>
-      <c r="AX13" s="56" t="s">
+      <c r="AX13" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="AY13" s="56"/>
-      <c r="AZ13" s="56"/>
-      <c r="BA13" s="56"/>
-      <c r="BB13" s="56"/>
-      <c r="BC13" s="56"/>
-      <c r="BD13" s="56"/>
+      <c r="AY13" s="71"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="71"/>
+      <c r="BB13" s="71"/>
+      <c r="BC13" s="71"/>
+      <c r="BD13" s="71"/>
       <c r="BE13" s="5"/>
       <c r="BF13" s="5"/>
       <c r="BG13" s="4"/>
@@ -2704,15 +2986,15 @@
       <c r="AW14" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AX14" s="57" t="s">
+      <c r="AX14" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="AY14" s="57"/>
-      <c r="AZ14" s="57"/>
-      <c r="BA14" s="57"/>
-      <c r="BB14" s="57"/>
-      <c r="BC14" s="57"/>
-      <c r="BD14" s="57"/>
+      <c r="AY14" s="73"/>
+      <c r="AZ14" s="73"/>
+      <c r="BA14" s="73"/>
+      <c r="BB14" s="73"/>
+      <c r="BC14" s="73"/>
+      <c r="BD14" s="73"/>
       <c r="BE14" s="27" t="s">
         <v>45</v>
       </c>
@@ -2812,15 +3094,15 @@
       <c r="AT15" s="9"/>
       <c r="AV15" s="8"/>
       <c r="AW15" s="4"/>
-      <c r="AX15" s="56" t="s">
+      <c r="AX15" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="AY15" s="56"/>
-      <c r="AZ15" s="56"/>
-      <c r="BA15" s="56"/>
-      <c r="BB15" s="56"/>
-      <c r="BC15" s="56"/>
-      <c r="BD15" s="56"/>
+      <c r="AY15" s="71"/>
+      <c r="AZ15" s="71"/>
+      <c r="BA15" s="71"/>
+      <c r="BB15" s="71"/>
+      <c r="BC15" s="71"/>
+      <c r="BD15" s="71"/>
       <c r="BE15" s="5"/>
       <c r="BF15" s="5"/>
       <c r="BG15" s="4"/>
@@ -2903,15 +3185,15 @@
       <c r="AW16" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AX16" s="57" t="s">
+      <c r="AX16" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="AY16" s="57"/>
-      <c r="AZ16" s="57"/>
-      <c r="BA16" s="57"/>
-      <c r="BB16" s="57"/>
-      <c r="BC16" s="57"/>
-      <c r="BD16" s="57"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="73"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="73"/>
+      <c r="BC16" s="73"/>
+      <c r="BD16" s="73"/>
       <c r="BE16" s="27" t="s">
         <v>45</v>
       </c>
@@ -3006,15 +3288,15 @@
       <c r="AT17" s="9"/>
       <c r="AV17" s="8"/>
       <c r="AW17" s="4"/>
-      <c r="AX17" s="56" t="s">
+      <c r="AX17" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="AY17" s="56"/>
-      <c r="AZ17" s="56"/>
-      <c r="BA17" s="56"/>
-      <c r="BB17" s="56"/>
-      <c r="BC17" s="56"/>
-      <c r="BD17" s="56"/>
+      <c r="AY17" s="71"/>
+      <c r="AZ17" s="71"/>
+      <c r="BA17" s="71"/>
+      <c r="BB17" s="71"/>
+      <c r="BC17" s="71"/>
+      <c r="BD17" s="71"/>
       <c r="BE17" s="5"/>
       <c r="BF17" s="5"/>
       <c r="BG17" s="4"/>
@@ -3099,15 +3381,15 @@
       <c r="AW18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AX18" s="57" t="s">
+      <c r="AX18" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AY18" s="57"/>
-      <c r="AZ18" s="57"/>
-      <c r="BA18" s="57"/>
-      <c r="BB18" s="57"/>
-      <c r="BC18" s="57"/>
-      <c r="BD18" s="57"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="73"/>
+      <c r="BA18" s="73"/>
+      <c r="BB18" s="73"/>
+      <c r="BC18" s="73"/>
+      <c r="BD18" s="73"/>
       <c r="BE18" s="27" t="s">
         <v>45</v>
       </c>
@@ -3200,15 +3482,15 @@
       <c r="AT19" s="9"/>
       <c r="AV19" s="8"/>
       <c r="AW19" s="4"/>
-      <c r="AX19" s="56" t="s">
+      <c r="AX19" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="AY19" s="56"/>
-      <c r="AZ19" s="56"/>
-      <c r="BA19" s="56"/>
-      <c r="BB19" s="56"/>
-      <c r="BC19" s="56"/>
-      <c r="BD19" s="56"/>
+      <c r="AY19" s="71"/>
+      <c r="AZ19" s="71"/>
+      <c r="BA19" s="71"/>
+      <c r="BB19" s="71"/>
+      <c r="BC19" s="71"/>
+      <c r="BD19" s="71"/>
       <c r="BE19" s="5"/>
       <c r="BF19" s="5"/>
       <c r="BG19" s="5"/>
@@ -3614,15 +3896,15 @@
     <row r="24" spans="20:102" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="T24" s="8"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="56" t="s">
+      <c r="V24" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="4"/>
@@ -3702,15 +3984,15 @@
       <c r="U25" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="59" t="s">
+      <c r="V25" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
       <c r="AC25" s="27" t="s">
         <v>45</v>
       </c>
@@ -3786,15 +4068,15 @@
     <row r="26" spans="20:102" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="T26" s="8"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="56" t="s">
+      <c r="V26" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="4"/>
@@ -3846,15 +4128,15 @@
       <c r="U27" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="V27" s="58" t="s">
+      <c r="V27" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="69"/>
       <c r="AC27" s="27" t="s">
         <v>45</v>
       </c>
@@ -3904,15 +4186,15 @@
     <row r="28" spans="20:102" x14ac:dyDescent="0.2">
       <c r="T28" s="8"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="55" t="s">
+      <c r="V28" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
@@ -4102,23 +4384,23 @@
       <c r="CX31" s="9"/>
     </row>
     <row r="32" spans="20:102" x14ac:dyDescent="0.2">
-      <c r="T32" s="44" t="s">
+      <c r="T32" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="U32" s="45"/>
-      <c r="V32" s="48" t="s">
+      <c r="U32" s="66"/>
+      <c r="V32" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="50"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="53"/>
       <c r="AG32" s="29"/>
       <c r="AH32" s="29"/>
       <c r="AI32" s="29"/>
@@ -4177,19 +4459,19 @@
       <c r="CX32" s="9"/>
     </row>
     <row r="33" spans="20:102" x14ac:dyDescent="0.2">
-      <c r="T33" s="46"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="53"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="56"/>
       <c r="AG33" s="29"/>
       <c r="AH33" s="29"/>
       <c r="AI33" s="29"/>
@@ -5102,38 +5384,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="CF11:CI11"/>
-    <mergeCell ref="CN3:CX4"/>
-    <mergeCell ref="CM6:CW6"/>
-    <mergeCell ref="CM7:CW7"/>
-    <mergeCell ref="CM11:CP11"/>
-    <mergeCell ref="CQ11:CS11"/>
-    <mergeCell ref="CT11:CW11"/>
-    <mergeCell ref="BZ3:CJ4"/>
-    <mergeCell ref="BY6:CI6"/>
-    <mergeCell ref="BY7:CI7"/>
-    <mergeCell ref="BY11:CB11"/>
-    <mergeCell ref="CC11:CE11"/>
-    <mergeCell ref="BK6:BU6"/>
-    <mergeCell ref="BK7:BU7"/>
-    <mergeCell ref="BK11:BN11"/>
-    <mergeCell ref="BO11:BQ11"/>
-    <mergeCell ref="BR11:BU11"/>
-    <mergeCell ref="V3:AF4"/>
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="V10:AE11"/>
-    <mergeCell ref="V27:AB27"/>
-    <mergeCell ref="V28:AB28"/>
-    <mergeCell ref="V24:AB24"/>
-    <mergeCell ref="V25:AB25"/>
-    <mergeCell ref="AH3:AI4"/>
-    <mergeCell ref="AV3:AW4"/>
-    <mergeCell ref="BJ3:BK4"/>
-    <mergeCell ref="BX3:BY4"/>
-    <mergeCell ref="CL3:CM4"/>
-    <mergeCell ref="AJ3:AT4"/>
-    <mergeCell ref="BL3:BV4"/>
-    <mergeCell ref="AX3:BH4"/>
     <mergeCell ref="T32:U33"/>
     <mergeCell ref="V32:AF33"/>
     <mergeCell ref="AX6:BG7"/>
@@ -5150,6 +5400,38 @@
     <mergeCell ref="AX18:BD18"/>
     <mergeCell ref="AX19:BD19"/>
     <mergeCell ref="V26:AB26"/>
+    <mergeCell ref="AH3:AI4"/>
+    <mergeCell ref="AV3:AW4"/>
+    <mergeCell ref="BJ3:BK4"/>
+    <mergeCell ref="BX3:BY4"/>
+    <mergeCell ref="CL3:CM4"/>
+    <mergeCell ref="AJ3:AT4"/>
+    <mergeCell ref="BL3:BV4"/>
+    <mergeCell ref="AX3:BH4"/>
+    <mergeCell ref="V3:AF4"/>
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="V10:AE11"/>
+    <mergeCell ref="V27:AB27"/>
+    <mergeCell ref="V28:AB28"/>
+    <mergeCell ref="V24:AB24"/>
+    <mergeCell ref="V25:AB25"/>
+    <mergeCell ref="BK6:BU6"/>
+    <mergeCell ref="BK7:BU7"/>
+    <mergeCell ref="BK11:BN11"/>
+    <mergeCell ref="BO11:BQ11"/>
+    <mergeCell ref="BR11:BU11"/>
+    <mergeCell ref="CF11:CI11"/>
+    <mergeCell ref="CN3:CX4"/>
+    <mergeCell ref="CM6:CW6"/>
+    <mergeCell ref="CM7:CW7"/>
+    <mergeCell ref="CM11:CP11"/>
+    <mergeCell ref="CQ11:CS11"/>
+    <mergeCell ref="CT11:CW11"/>
+    <mergeCell ref="BZ3:CJ4"/>
+    <mergeCell ref="BY6:CI6"/>
+    <mergeCell ref="BY7:CI7"/>
+    <mergeCell ref="BY11:CB11"/>
+    <mergeCell ref="CC11:CE11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5159,53 +5441,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBB581A-704D-1D43-A01F-D918578517B0}">
-  <dimension ref="D5:Z54"/>
+  <dimension ref="D5:AX54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="208" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="118" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D5" s="70" t="s">
+    <row r="5" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="D5" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="M5" s="70" t="s">
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="M5" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="V5" s="70" t="s">
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="V5" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-    </row>
-    <row r="11" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="M11" s="71" t="s">
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+    </row>
+    <row r="11" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="M11" s="44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D13" s="71" t="s">
+    <row r="13" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="D13" s="44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
+    <row r="15" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="AC15" s="44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>2</v>
+      </c>
+      <c r="AL16">
+        <v>3</v>
+      </c>
+      <c r="AM16">
+        <v>4</v>
+      </c>
+      <c r="AN16">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>80</v>
       </c>
@@ -5217,41 +5522,95 @@
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
       <c r="K18" s="34"/>
-      <c r="L18" s="73"/>
+      <c r="L18" s="46"/>
       <c r="M18" s="34"/>
-    </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="AC18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="74"/>
+        <v>113</v>
+      </c>
+      <c r="G19" s="47"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
+    <row r="20" spans="4:50" x14ac:dyDescent="0.2">
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
       <c r="K20" s="34"/>
-    </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="AC20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH20" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="34"/>
+      <c r="AN20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="3"/>
+    </row>
+    <row r="21" spans="4:50" x14ac:dyDescent="0.2">
+      <c r="AC21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH21" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP21" s="47"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="6"/>
+    </row>
+    <row r="22" spans="4:50" x14ac:dyDescent="0.2">
+      <c r="AC22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH22" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="50"/>
+    </row>
+    <row r="23" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>84</v>
       </c>
@@ -5276,50 +5635,95 @@
       <c r="X23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="AC23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="AC25">
+        <v>2</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="AC26">
+        <v>3</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="AC27">
+        <v>4</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="AC28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="4:50" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="AC29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="4:50" x14ac:dyDescent="0.2">
       <c r="E32" s="75" t="s">
         <v>96</v>
       </c>
@@ -5328,174 +5732,29 @@
       <c r="H32" s="75"/>
       <c r="I32" s="75"/>
       <c r="J32" s="75"/>
-    </row>
-    <row r="33" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>2</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <v>4</v>
-      </c>
-      <c r="O33">
-        <v>5</v>
-      </c>
-      <c r="P33" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="34"/>
-      <c r="O37" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="3"/>
-    </row>
-    <row r="38" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>99</v>
-      </c>
-      <c r="I38" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="6"/>
-    </row>
-    <row r="39" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>106</v>
-      </c>
-      <c r="I39" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="66"/>
-    </row>
-    <row r="40" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" t="s">
-        <v>86</v>
-      </c>
-      <c r="L40" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="E49" s="76" t="s">
+      <c r="AD32" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="78"/>
-      <c r="L49" s="76" t="s">
+      <c r="AE32" s="77"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="77"/>
+      <c r="AH32" s="77"/>
+      <c r="AI32" s="78"/>
+      <c r="AK32" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="M49" s="77"/>
-      <c r="N49" s="77"/>
-      <c r="O49" s="77"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="78"/>
-    </row>
-    <row r="52" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="AL32" s="77"/>
+      <c r="AM32" s="77"/>
+      <c r="AN32" s="77"/>
+      <c r="AO32" s="77"/>
+      <c r="AP32" s="78"/>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
         <v>43</v>
       </c>
@@ -5505,9 +5764,9 @@
     <mergeCell ref="V5:Z5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="L49:Q49"/>
-    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="AD32:AI32"/>
+    <mergeCell ref="AK32:AP32"/>
+    <mergeCell ref="AH22:AK22"/>
     <mergeCell ref="M5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/visitation/web/doc/User Interface for Field Visitation - 2022-06-01.xlsx
+++ b/src/visitation/web/doc/User Interface for Field Visitation - 2022-06-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/everett/Documents/Codes/Projects/Work/Enzi/src/visitation/web/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAAFCAB-CEF4-254F-AF85-32241F65ADF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F833AF-A954-534D-98C0-A1E08C895651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32720" windowHeight="17900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33220" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="115">
   <si>
     <t>Dashboard</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>Address Keyword</t>
+  </si>
+  <si>
+    <t>Search</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +453,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -954,6 +963,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1340,8 +1350,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1396027" y="4872184"/>
-              <a:ext cx="5718339" cy="528226"/>
+              <a:off x="1396008" y="4871763"/>
+              <a:ext cx="5718378" cy="529076"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1470,8 +1480,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="919080" y="5735520"/>
-              <a:ext cx="1865160" cy="576360"/>
+              <a:off x="919073" y="5735671"/>
+              <a:ext cx="1865174" cy="576054"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1509,7 +1519,7 @@
       <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 71 24575,'39'0'0,"15"0"0,15 0 0,10 0 0,12 0 0,8 0-1967,-14-1 1,6-1 0,5 1 0,6-1 0,6-1 1965,-22 1 0,5-1 0,3 0 0,3 0 0,4 0 0,3-1 0,2 1 1,2-1-1,2 1-207,-20 1 1,2-1 0,2 0 0,2-1 0,2 1 0,1 0 0,2 0-1,0 0 1,3 0 0,0 1 0,1 0 0,0 0 0,2 2 0,0 0 207,-16 0 0,1 0 0,2 1 0,0 0 0,1 0 0,1 1 0,0-1 0,1 1 0,1 1 0,0-1 0,1 1 0,0 0 0,1 1 0,0 0 0,0 1 0,1 0 0,0 0 0,-1 1 0,1 0-52,-6 1 0,-1 0 0,2 0 1,0 0-1,1 1 0,0 0 0,1 1 1,-1 0-1,2 0 0,-1 1 0,0 0 1,1 0-1,-1 1 0,1-1 0,-1 2 1,0-1-1,0 1 0,0 0 0,-1 0 1,0 1-1,-1-1 0,0 1 52,6 2 0,0-1 0,0 1 0,0 1 0,0 0 0,0 0 0,0 1 0,0 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,0 1 0,-1-1 0,-1 1 0,0 0 0,-1 0 0,0 0 0,-2 0 0,-1 1 0,6 0 0,-1 2 0,0 0 0,-1 0 0,0 0 0,-1 1 0,0 0 0,-1 0 0,-1 1 0,-1-1 0,-2 0 0,0 0 0,-2 0 0,-1-1 0,-1 0 0,-2 0 0,-2-1 0,19 6 0,-1-1 0,-1 1 0,-2-1 0,-3 1 0,-1-2 0,-3 0 0,-3-1 0,-2-1 0,-5-2 0,-3-2 0,19 5 0,-5 0 0,-5-3 0,-5-2 0,-5-4 0,-8-5 0,12-3 0,-10-5 0,-11-11 1278,-9-16 1,-5-6-1279,19-6 0,5 0 2268,6-2 1,2 2-2269,-3 5 0,-2 1 3392,-5 4 0,-3 0-3392,-3 3 0,0 0-3392,-3 0 0,-1 0 3392,1 0 0,0 0 0,-1 0 0,1-1 0,-3 0 0,-1 0 0,-5 0 0,-2 1 0,36-21 0,-10 3 0,-9 4 6784,0 4-6784,4 0 0,3 3 0,4 0 0,1 2 0,-1 3 0,-1 0 0,2 0 0,5-1 0,-35 11 0,1-1 0,2-1 0,1-1 0,5 0 0,0 0 0,0 0 0,0 1 0,-6 2 0,0 0 0,38-9 0,-18 5 0,-13 5 0,-10 2 0,-6 4 0,-4 0 0,-2 4 0,-1 0 0,2 2 0,-1 1 0,2 0 0,-2 2 0,-4 0 0,-6 0 0,-6 0 0,-4 0 0,0 0 0,-8 0 0,2 0 0,-8 0 0,2 0 0,-1 0 0,0 0 0,1 0 0,-2 0 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 69 24575,'39'0'0,"15"0"0,15 0 0,10 0 0,11 0 0,10 0-1967,-15-1 1,5 0 0,6-1 0,6 0 0,6 0 1965,-22-1 0,4 1 0,5-1 0,2 0 0,4-1 0,2 1 0,3 0 1,2 0-1,2-1-207,-20 2 1,2-1 0,2 0 0,2 0 0,1 0 0,2-1 0,2 1-1,1 0 1,1 1 0,1 0 0,0 0 0,2 0 0,0 2 0,1 0 207,-16 0 0,2 0 0,0 1 0,1 0 0,1 0 0,0 1 0,2-1 0,0 1 0,0 0 0,2 1 0,-1 0 0,2 0 0,-1 1 0,1 0 0,0 0 0,1 1 0,-1 0 0,1 1 0,0 0-52,-7 0 0,1 1 0,0 0 1,1 0-1,1 1 0,0 0 0,0 0 1,1 1-1,0 0 0,0 1 0,1-1 1,-1 1-1,0 1 0,1-1 0,-1 1 1,0 0-1,0 1 0,-1-1 0,0 1 1,0 1-1,-1-1 0,0 1 52,5 1 0,1 0 0,0 1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,0 0 0,0 1 0,-1-1 0,-1 1 0,0 0 0,0 1 0,-2-1 0,0 1 0,-1-1 0,0 1 0,-2 0 0,5 1 0,0 1 0,0 0 0,-1 1 0,0 0 0,-1 0 0,0 1 0,-2 0 0,0-1 0,-1 1 0,-1-1 0,-2 1 0,0-1 0,-2 0 0,-2 0 0,-1-1 0,-2 0 0,19 4 0,-1 1 0,-2 0 0,-1 0 0,-2 0 0,-3-1 0,-2-1 0,-3-1 0,-3 0 0,-3-3 0,-4-1 0,19 5 0,-5-2 0,-5-1 0,-5-2 0,-6-5 0,-7-4 0,12-3 0,-10-5 0,-11-11 1278,-10-15 1,-3-7-1279,18-4 0,4-2 2268,8 0 1,1 1-2269,-4 4 0,0 2 3392,-7 3 0,-2 1-3392,-3 2 0,0 1-3392,-3 0 0,-1-1 3392,1 1 0,-1-1 0,1 1 0,-1-2 0,-1 1 0,-2-1 0,-6 2 0,-1-1 0,37-20 0,-12 2 0,-8 5 6784,1 5-6784,2-1 0,4 2 0,4 1 0,1 1 0,-2 4 0,1 0 0,1 0 0,4-2 0,-34 11 0,1 0 0,2-2 0,2 0 0,3-1 0,1 1 0,0-1 0,-1 2 0,-4 0 0,-2 2 0,40-10 0,-19 6 0,-13 4 0,-11 3 0,-5 3 0,-4 1 0,-2 2 0,-1 2 0,2 0 0,0 2 0,0 1 0,-1 1 0,-4 0 0,-6 0 0,-6 0 0,-4 0 0,0 0 0,-8 0 0,2 0 0,-8 0 0,2 0 0,-1 0 0,0 0 0,1 0 0,-2 0 0,1 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1565,7 +1575,7 @@
       <inkml:brushProperty name="color" value="#FF0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2364 89 24575,'-64'-2'0,"-25"-1"0,-8-7 0,16 2 0,-5-2 0,8 1 0,-2-1 0,-17-1 0,-2 2 0,9 3 0,2 1 0,9 3 0,3 0 0,4 1 0,2 1 0,4 0 0,3 0 0,2 1 0,2 2 0,6 1 0,0 1 0,2 2 0,1 1 0,-45 12 0,-2 2 0,9 1 0,12 3 0,13 1 0,16 2 0,9 4 0,6 9 0,-10 45 0,12-12 0,12-21 0,2 2 0,4 23 0,6-6 0,5-10 0,3-11 0,6-9 0,8-4 0,10-3 0,4 1 0,4 1 0,1-1 0,1-3 0,6-2 0,9-6 0,10-1 0,13-2 0,9 1 0,8 2 0,-40-11 0,2 0 0,6 4 0,1 0 0,4 1 0,2-1 0,7 2 0,1-2 0,-1-1 0,0-1 0,-2-1 0,0 0 0,-2-2 0,-2-1 0,-8-2 0,-2-1 0,-3-3 0,-1 0 0,43-1 0,-6-4 0,2-2 0,-5 0 0,-5 0 0,-13 0 0,-9 0 0,2 0 0,5-1 0,-8-1 0,-15-1 0,-7 2 0,23 0 0,-7 1 0,7 0 0,15 0 0,8 0-333,-8 1 0,7 0 1,0 1 332,2-1 0,1 1 0,-1-1 0,-5 0 0,0 1 0,-2-1-18,-6 1 1,-1-1 0,-4 0 17,6-1 0,-4 0 0,-3-1 0,-2-1 0,-1 0 0,-1-1 0,-2-2 0,0-3 0,-3-2 0,-1-2 498,2-1 0,-1-2-498,0-1 0,-1-2 27,-2 0 0,-3 0-27,39-17 0,-22 2 0,-17 3 0,-16 2 0,-12-2 0,-7-3 0,-8-5 0,-4-6 0,-3-2 0,-6-1 0,-9 1 0,-11 0 0,-12-1 0,-5 2 0,-1 2 0,0 6 0,1 7 0,-5 0 0,-2 4 0,-3-2 0,-4-3 0,-2 3 0,-4 2 0,-3 5 0,-3 2 0,-5-1 0,-10-2 0,-5 0 0,-1 2 0,4 5 0,4 1 0,-1-1 0,-1-1 0,-7 0 0,-4-1 0,45 9 0,1 1 0,-3 0 0,0 0 0,0 0 0,-1-1 0,0 2 0,0-1 0,2 0 0,0 0 0,-42-6 0,9 3 0,13 2 0,12 4 0,12 1 0,9-1 0,5-1 0,1-4 0,-2 0 0,1 2 0,1 0 0,4 4 0,4 0 0,2 0 0,0 2 0,-3-4 0,11 3 0,-1-1 0,13 3 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2364 90 24575,'-64'-2'0,"-26"-1"0,-7-7 0,17 1 0,-6 0 0,8-1 0,-2 0 0,-17-1 0,-2 2 0,9 3 0,2 1 0,9 3 0,3 0 0,4 1 0,1 1 0,6 0 0,1 0 0,4 2 0,1 0 0,5 2 0,2 2 0,1 0 0,1 3 0,-45 10 0,-2 3 0,9 2 0,12 2 0,13 1 0,16 3 0,9 3 0,6 9 0,-10 46 0,12-12 0,12-21 0,2 0 0,4 26 0,6-9 0,5-7 0,3-13 0,6-9 0,8-4 0,10-2 0,4 0 0,4 2 0,1-3 0,1-1 0,6-3 0,9-5 0,10-2 0,13-2 0,9 1 0,7 2 0,-38-11 0,1 1 0,6 3 0,1 0 0,4 1 0,2 0 0,7 0 0,1 0 0,-1-2 0,0 0 0,-2-2 0,0-1 0,-2-1 0,-2-1 0,-8-2 0,-2-1 0,-3-2 0,-1-1 0,43-1 0,-6-4 0,2-2 0,-5 0 0,-6 0 0,-11 0 0,-10 0 0,2 0 0,5-1 0,-9-1 0,-13-1 0,-8 2 0,23 0 0,-7 1 0,6 0 0,17 0 0,6 0-333,-6 1 0,5 0 1,1 1 332,2-1 0,1 0 0,-1 1 0,-4-1 0,-2 1 0,-1-1-18,-6 1 1,-1-1 0,-4 0 17,6-1 0,-4 0 0,-3-1 0,-1-1 0,-3 0 0,0-1 0,-2-3 0,0-1 0,-3-3 0,-1-2 498,2-1 0,-1-2-498,0-2 0,-1-1 27,-2 0 0,-3 0-27,39-17 0,-22 1 0,-17 4 0,-16 2 0,-12-2 0,-7-4 0,-8-5 0,-4-5 0,-3-2 0,-6-2 0,-9 2 0,-11 0 0,-12-1 0,-5 1 0,-1 2 0,0 7 0,1 7 0,-5 0 0,-2 3 0,-3-1 0,-3-3 0,-4 3 0,-3 2 0,-3 4 0,-3 4 0,-5-3 0,-10-1 0,-4-1 0,-3 4 0,5 3 0,4 2 0,0 0 0,-3-3 0,-6 1 0,-4-2 0,46 11 0,-1-1 0,-2 2 0,0-1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,2 0 0,-43-6 0,9 3 0,12 2 0,13 4 0,12 0 0,9 1 0,5-2 0,1-4 0,-2 0 0,1 1 0,1 2 0,4 2 0,5 2 0,0-1 0,2 1 0,-4-3 0,10 3 0,1-1 0,12 3 0,-1 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1834,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="I2:CX53"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17:AD28"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24:AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5443,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBB581A-704D-1D43-A01F-D918578517B0}">
   <dimension ref="D5:AX54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="118" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView zoomScale="241" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5555,6 +5565,9 @@
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
       <c r="K20" s="34"/>
+      <c r="N20" s="44" t="s">
+        <v>114</v>
+      </c>
       <c r="AC20" t="s">
         <v>98</v>
       </c>
@@ -5611,30 +5624,46 @@
       <c r="AK22" s="50"/>
     </row>
     <row r="23" spans="4:50" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+      <c r="D23" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="G23" t="s">
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" s="79"/>
+      <c r="I23" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="L23" t="s">
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="P23" t="s">
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="S23" t="s">
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="V23" t="s">
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="X23" t="s">
+      <c r="W23" s="79"/>
+      <c r="X23" s="79" t="s">
         <v>91</v>
       </c>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
       <c r="AC23" t="s">
         <v>84</v>
       </c>
